--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,15 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -67,133 +67,139 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>use</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3255813953488372</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +708,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8653250773993808</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +734,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +760,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7532467532467533</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -806,13 +812,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +838,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6875</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +864,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +890,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -910,13 +916,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6571428571428571</v>
+        <v>0.6548956661316212</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>816</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>816</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -962,13 +968,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6406779661016949</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L15">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +994,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6388443017656501</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L16">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1020,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1046,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6164383561643836</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1066,13 +1072,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6140350877192983</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1098,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1124,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5972222222222222</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1144,13 +1150,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5299145299145299</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1176,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5192307692307693</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L23">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1202,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4970059880239521</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4819277108433735</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1254,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4769230769230769</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1280,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4736842105263158</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1300,13 +1306,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4661654135338346</v>
+        <v>0.4670658682634731</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1318,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1326,13 +1332,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4320987654320987</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1344,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1352,13 +1358,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4156626506024096</v>
+        <v>0.43</v>
       </c>
       <c r="L30">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1370,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1378,13 +1384,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3774509803921569</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L31">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="M31">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>254</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1404,13 +1410,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.37</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1422,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1430,13 +1436,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3609022556390977</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1448,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>85</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1456,13 +1462,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3385214007782101</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L34">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>170</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1482,13 +1488,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3191780821917808</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L35">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="M35">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>497</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1508,13 +1514,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2882882882882883</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1526,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1534,13 +1540,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2727272727272727</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L37">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="M37">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>152</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1560,13 +1566,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2583423035522067</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L38">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="M38">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>689</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1586,13 +1592,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.223021582733813</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1604,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1612,13 +1618,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2185430463576159</v>
+        <v>0.2529601722282024</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1630,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>118</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1638,13 +1644,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.213166144200627</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L41">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1656,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1664,13 +1670,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2033248081841432</v>
+        <v>0.2079470198675497</v>
       </c>
       <c r="L42">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M42">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1682,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>623</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1690,13 +1696,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1907284768211921</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L43">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1708,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>611</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1716,13 +1722,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.134020618556701</v>
+        <v>0.190537084398977</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1734,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>252</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1742,25 +1748,25 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1260504201680672</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>208</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1768,25 +1774,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1185983827493261</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>327</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1794,7 +1800,7 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1136363636363636</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -1812,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1820,13 +1826,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1097852028639618</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1838,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>373</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1846,13 +1852,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1070559610705596</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1864,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>367</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1872,13 +1878,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1030701754385965</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1890,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>409</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1898,25 +1904,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.07476635514018691</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L51">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>990</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1924,25 +1930,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.06743185078909612</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>650</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1950,25 +1956,77 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.03466204506065858</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1114</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54">
+        <v>0.06716417910447761</v>
+      </c>
+      <c r="L54">
+        <v>72</v>
+      </c>
+      <c r="M54">
+        <v>72</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55">
+        <v>0.04065743944636678</v>
+      </c>
+      <c r="L55">
+        <v>47</v>
+      </c>
+      <c r="M55">
+        <v>48</v>
+      </c>
+      <c r="N55">
+        <v>0.98</v>
+      </c>
+      <c r="O55">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
